--- a/biology/Botanique/Nostocales/Nostocales.xlsx
+++ b/biology/Botanique/Nostocales/Nostocales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nostocales sont un ordre de Cyanobactéries (anciennement appelées algues bleues). Ce terme provient du mot Nostoc, dont l'étymologie est discutée[1], il pourrait avoir été inventé par Paracelse (Nostoch). Il désigne aujourd'hui  un genre de cyanobactéries de la famille des Nostocaceae. Les espèces du genre Nostoc sont des organismes procaryotes réalisant la photosynthèse et fixant l’azote.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nostocales sont un ordre de Cyanobactéries (anciennement appelées algues bleues). Ce terme provient du mot Nostoc, dont l'étymologie est discutée, il pourrait avoir été inventé par Paracelse (Nostoch). Il désigne aujourd'hui  un genre de cyanobactéries de la famille des Nostocaceae. Les espèces du genre Nostoc sont des organismes procaryotes réalisant la photosynthèse et fixant l’azote.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2018) :
 famille des Aphanizomenonaceae Elenkin
 famille des Borzinemataceae
 famille des Chlorogloeopsidaceae
